--- a/biology/Virologie/Betacoronavirus_1/Betacoronavirus_1.xlsx
+++ b/biology/Virologie/Betacoronavirus_1/Betacoronavirus_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Coronavirus
-Le betacoronavirus 1 est une espèce de coronavirus qui infecte les humains et le bétail[2]. Le virus infectant est un virus à ARN monocaténaire enveloppé à polarité positive, et appartient au genre Betacoronavirus et au sous-genre Embecovirus[3]. Il possède, comme d'autres embécovirus, une protéine de surface en forme de pic plus courte supplémentaire, appelée hémagglutinine estérase (HE)[4],[5].
-Il comprend notamment les membres suivants[6] :
+Le betacoronavirus 1 est une espèce de coronavirus qui infecte les humains et le bétail. Le virus infectant est un virus à ARN monocaténaire enveloppé à polarité positive, et appartient au genre Betacoronavirus et au sous-genre Embecovirus. Il possède, comme d'autres embécovirus, une protéine de surface en forme de pic plus courte supplémentaire, appelée hémagglutinine estérase (HE),.
+Il comprend notamment les membres suivants :
 le coronavirus HKU23 (dromadaire) ;
 le coronavirus bovin (BCoV) (bovins, alpaga) ;
 le coronavirus humain OC43 (HCoV-OC43) dont l'émergence est récente (vers 1890) ;
